--- a/Design Docs/PeerReview_ArjendeAldrey.xlsx
+++ b/Design Docs/PeerReview_ArjendeAldrey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeal\Desktop\Project Indie\Project-startup\Design Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DAC2211-D1A1-4677-98B6-6907C9AB51AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A548026-49BA-4B6C-8E82-2A6282146B3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1173,8 +1173,8 @@
   </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1661,27 +1661,39 @@
       <c r="D10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="43">
+        <v>8</v>
+      </c>
       <c r="F10" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="43"/>
+      <c r="G10" s="43">
+        <v>7</v>
+      </c>
       <c r="H10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="43">
+        <v>7</v>
+      </c>
       <c r="J10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="43"/>
+      <c r="K10" s="43">
+        <v>7</v>
+      </c>
       <c r="L10" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="29"/>
+      <c r="M10" s="29">
+        <v>8</v>
+      </c>
       <c r="N10" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="29"/>
+      <c r="O10" s="29">
+        <v>7</v>
+      </c>
       <c r="P10" s="28" t="s">
         <v>28</v>
       </c>
@@ -2021,44 +2033,44 @@
       <c r="D17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="33" t="str">
+      <c r="E17" s="33">
         <f>IF(COUNTA(E7:E16)&gt;0,COUNT(E7:E16)/COUNTA(E7:E16),"NA")</f>
-        <v>NA</v>
+        <v>1</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="33" t="str">
+      <c r="G17" s="33">
         <f>IF(COUNTA(G7:G16)&gt;0,COUNT(G7:G16)/COUNTA(G7:G16),"NA")</f>
-        <v>NA</v>
+        <v>1</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="33" t="str">
+      <c r="I17" s="33">
         <f>IF(COUNTA(I7:I16)&gt;0,COUNT(I7:I16)/COUNTA(I7:I16),"NA")</f>
-        <v>NA</v>
+        <v>1</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="33" t="str">
+      <c r="K17" s="33">
         <f>IF(COUNTA(K7:K16)&gt;0,COUNT(K7:K16)/COUNTA(K7:K16),"NA")</f>
-        <v>NA</v>
+        <v>1</v>
       </c>
       <c r="L17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="33" t="str">
+      <c r="M17" s="33">
         <f>IF(COUNTA(M7:M16)&gt;0,COUNT(M7:M16)/COUNTA(M7:M16),"NA")</f>
-        <v>NA</v>
+        <v>1</v>
       </c>
       <c r="N17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="33" t="str">
+      <c r="O17" s="33">
         <f>IF(COUNTA(O7:O16)&gt;0,COUNT(O7:O16)/COUNTA(O7:O16),"NA")</f>
-        <v>NA</v>
+        <v>1</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>39</v>
@@ -4308,9 +4320,9 @@
       <c r="A3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="39">
         <f>'Week 2 Review'!E$17</f>
-        <v>NA</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <f>'Week 2 Review'!Y$7</f>
@@ -4323,9 +4335,9 @@
       <c r="E3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="39" t="str">
+      <c r="F3" s="39">
         <f>'Week 2 Review'!O$17</f>
-        <v>NA</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f>'Week 2 Review'!Y$12</f>
@@ -4438,9 +4450,9 @@
       <c r="A8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="39" t="str">
+      <c r="B8" s="39">
         <f>'Week 2 Review'!G$17</f>
-        <v>NA</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f>'Week 2 Review'!Y$8</f>
@@ -4568,9 +4580,9 @@
       <c r="A13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="39" t="str">
+      <c r="B13" s="39">
         <f>'Week 2 Review'!I$17</f>
-        <v>NA</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <f>'Week 2 Review'!Y$9</f>
@@ -4699,9 +4711,9 @@
       <c r="A18" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="39" t="str">
+      <c r="B18" s="39">
         <f>'Week 2 Review'!K$17</f>
-        <v>NA</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <f>'Week 2 Review'!Y$10</f>
@@ -4831,9 +4843,9 @@
       <c r="A23" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="39" t="str">
+      <c r="B23" s="39">
         <f>'Week 2 Review'!M$17</f>
-        <v>NA</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <f>'Week 2 Review'!Y$11</f>
